--- a/package_301/data/api_test.xlsx
+++ b/package_301/data/api_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520" activeTab="3"/>
+    <workbookView windowWidth="24345" windowHeight="12615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="370">
   <si>
     <t>case_id</t>
   </si>
@@ -938,37 +938,58 @@
     <t>{"mobilephone": "1391254|0000-9999|", "pwd": "123456"}</t>
   </si>
   <si>
-    <t>1391254|0000-9999|</t>
+    <t>#reg_phone#</t>
   </si>
   <si>
     <t>{"mobilephone": "1391254|0000-9999|", "pwd": "123456", "regname": "${nickname1}"}</t>
   </si>
   <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
     <t>{"status": 0, "code": "20108", "data": null, "msg": "密码长度必须为6~18"}</t>
   </si>
   <si>
+    <t>october</t>
+  </si>
+  <si>
     <t>{"mobilephone": "13912541274", "pwd": "12345678901234567890", "regname": "${nickname1}"}</t>
   </si>
   <si>
     <t>12345678901234567890</t>
   </si>
   <si>
+    <t>november</t>
+  </si>
+  <si>
     <t>{"mobilephone": "175", "pwd": "123456", "regname": "${nickname1}"}</t>
   </si>
   <si>
     <t>{"status": 0, "code": "20109", "data": null, "msg": "手机号码格式不正确"}</t>
   </si>
   <si>
+    <t>december</t>
+  </si>
+  <si>
     <t>{"mobilephone": "${phone}", "pwd": "${pwd}", "regname": "${nickname1}"}</t>
   </si>
   <si>
     <t>{"status": 0, "code": "20110", "data": null, "msg": "手机号码已被注册"}</t>
   </si>
   <si>
-    <t>${phone}</t>
-  </si>
-  <si>
-    <t>${pwd}</t>
+    <t>#phone#</t>
+  </si>
+  <si>
+    <t>#pwd#</t>
+  </si>
+  <si>
+    <t>january</t>
   </si>
   <si>
     <t>{"mobilephone": "1391524[0000-9999]", "amount": 500}</t>
@@ -1117,8 +1138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1147,6 +1168,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1157,6 +1179,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,6 +1215,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1185,29 +1229,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,6 +1273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1252,26 +1289,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1296,7 +1317,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1365,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,25 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,121 +1479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,7 +1497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,6 +1508,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1505,6 +1537,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1515,16 +1562,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,42 +1595,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1595,10 +1616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1607,16 +1628,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1628,112 +1649,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8473,8 +8494,8 @@
   <sheetPr/>
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8653,7 +8674,7 @@
         <v>123456</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="W3" s="1">
         <v>1</v>
@@ -8700,7 +8721,7 @@
         <v>123456</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -8747,7 +8768,7 @@
         <v>13912541272</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -8788,7 +8809,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J6" s="1">
         <v>13912541273</v>
@@ -8797,7 +8818,7 @@
         <v>123</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>34</v>
+        <v>311</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -8835,19 +8856,19 @@
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J7" s="1">
         <v>13912541274</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -8885,10 +8906,10 @@
         <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J8" s="1">
         <v>175</v>
@@ -8897,7 +8918,7 @@
         <v>123456</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -8935,19 +8956,19 @@
         <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -9095,13 +9116,13 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>72</v>
@@ -9148,7 +9169,7 @@
         <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>72</v>
@@ -9166,7 +9187,7 @@
         <v>30</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Z3" t="s">
         <v>299</v>
@@ -9192,10 +9213,10 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I4" s="1">
         <v>13912345655</v>
@@ -9242,10 +9263,10 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="I5" s="1">
         <v>175</v>
@@ -9295,7 +9316,7 @@
         <v>301</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I6" s="1">
         <v>13912345611</v>
@@ -9339,10 +9360,10 @@
         <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I7" s="1">
         <v>13912345611</v>
@@ -9389,10 +9410,10 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I8" s="1">
         <v>13912345611</v>
@@ -9413,7 +9434,7 @@
         <v>30</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Z8" t="s">
         <v>299</v>
@@ -9439,10 +9460,10 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I9" s="1">
         <v>13912345611</v>
@@ -9463,7 +9484,7 @@
         <v>30</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Z9" t="s">
         <v>299</v>
@@ -9489,10 +9510,10 @@
         <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I10" s="1">
         <v>13912345611</v>
@@ -9650,7 +9671,7 @@
         <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H2" t="s">
         <v>298</v>
@@ -9741,10 +9762,10 @@
         <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I4" s="1">
         <v>13912345655</v>
@@ -9765,7 +9786,7 @@
         <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:26">
@@ -9791,7 +9812,7 @@
         <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="I5" s="1">
         <v>123</v>
@@ -9838,7 +9859,7 @@
         <v>301</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I6" s="1">
         <v>13912345611</v>
@@ -9879,10 +9900,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I7" s="1">
         <v>13912345611</v>
@@ -9926,10 +9947,10 @@
         <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H8" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I8" s="1">
         <v>13912345611</v>
@@ -9973,10 +9994,10 @@
         <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I9" s="1">
         <v>13912345611</v>
@@ -10020,10 +10041,10 @@
         <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I10" s="1">
         <v>13912345611</v>
@@ -10067,10 +10088,10 @@
         <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I11" s="1">
         <v>13912345611</v>
@@ -10091,7 +10112,7 @@
         <v>115</v>
       </c>
       <c r="Z11" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -10259,7 +10280,7 @@
         <v>31</v>
       </c>
       <c r="Z2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:25">
@@ -10285,7 +10306,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q3" s="1">
         <v>66666</v>
@@ -10332,7 +10353,7 @@
         <v>132</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J4" s="1">
         <v>77777</v>
@@ -10382,7 +10403,7 @@
         <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J5" s="1">
         <v>77777</v>
@@ -10432,7 +10453,7 @@
         <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J6" s="1">
         <v>77777</v>
@@ -10482,7 +10503,7 @@
         <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J7" s="1">
         <v>-1</v>
@@ -10535,7 +10556,7 @@
         <v>142</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -10588,7 +10609,7 @@
         <v>144</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J9" s="1">
         <v>77777.5</v>
@@ -10615,7 +10636,7 @@
         <v>140</v>
       </c>
       <c r="Z9" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:26">
@@ -10641,7 +10662,7 @@
         <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="J10" s="1">
         <v>77777</v>
@@ -10668,7 +10689,7 @@
         <v>148</v>
       </c>
       <c r="Z10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:26">
@@ -10694,7 +10715,7 @@
         <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="J11" s="1">
         <v>77777</v>
@@ -10721,7 +10742,7 @@
         <v>148</v>
       </c>
       <c r="Z11" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:26">
@@ -10747,7 +10768,7 @@
         <v>152</v>
       </c>
       <c r="H12" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="J12" s="1">
         <v>77777</v>
@@ -10774,7 +10795,7 @@
         <v>148</v>
       </c>
       <c r="Z12" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:26">
@@ -10800,7 +10821,7 @@
         <v>154</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J13" s="1">
         <v>77777</v>
@@ -10850,10 +10871,10 @@
         <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J14" s="1">
         <v>77777</v>
@@ -10874,10 +10895,10 @@
         <v>30</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Z14" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:26">
@@ -10903,7 +10924,7 @@
         <v>160</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J15" s="1">
         <v>77777</v>
@@ -10924,10 +10945,10 @@
         <v>30</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Z15" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:26">
@@ -10953,7 +10974,7 @@
         <v>162</v>
       </c>
       <c r="H16" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J16" s="1">
         <v>77777</v>
@@ -11006,7 +11027,7 @@
         <v>165</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="J17" s="1">
         <v>77777</v>
@@ -11059,7 +11080,7 @@
         <v>169</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="I18"/>
       <c r="J18" s="1">
@@ -11115,7 +11136,7 @@
         <v>171</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="J19" s="1">
         <v>77777</v>
@@ -11153,7 +11174,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>122</v>
@@ -11168,7 +11189,7 @@
         <v>173</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>172</v>
@@ -11195,7 +11216,7 @@
         <v>175</v>
       </c>
       <c r="Z20" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:26">
@@ -11206,7 +11227,7 @@
         <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>122</v>
@@ -11221,7 +11242,7 @@
         <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>172</v>
@@ -11248,7 +11269,7 @@
         <v>177</v>
       </c>
       <c r="Z21" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:26">
@@ -11259,7 +11280,7 @@
         <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>122</v>
@@ -11274,7 +11295,7 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>172</v>
@@ -11301,7 +11322,7 @@
         <v>179</v>
       </c>
       <c r="Z22" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:26">
@@ -11312,7 +11333,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>122</v>
@@ -11327,7 +11348,7 @@
         <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>172</v>
@@ -11354,7 +11375,7 @@
         <v>181</v>
       </c>
       <c r="Z23" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:26">
@@ -11365,7 +11386,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>122</v>
@@ -11380,7 +11401,7 @@
         <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>172</v>
@@ -11407,7 +11428,7 @@
         <v>183</v>
       </c>
       <c r="Z24" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:26">
@@ -11433,7 +11454,7 @@
         <v>185</v>
       </c>
       <c r="H25" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>99</v>
@@ -11486,7 +11507,7 @@
         <v>193</v>
       </c>
       <c r="H26" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J26" s="1">
         <v>77777</v>
@@ -12193,7 +12214,7 @@
         <v>215</v>
       </c>
       <c r="H11" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I11" s="1">
         <v>-1</v>
@@ -12255,7 +12276,7 @@
         <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -12317,7 +12338,7 @@
         <v>221</v>
       </c>
       <c r="H13" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I13" s="1">
         <v>777777.7</v>
@@ -12379,7 +12400,7 @@
         <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I14" s="1">
         <v>777777</v>
@@ -12441,7 +12462,7 @@
         <v>227</v>
       </c>
       <c r="H15" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I15" s="1">
         <v>777777</v>
@@ -12503,7 +12524,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I16" s="1">
         <v>777777</v>
@@ -12565,7 +12586,7 @@
         <v>233</v>
       </c>
       <c r="H17" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I17" s="1">
         <v>777777</v>
@@ -12627,7 +12648,7 @@
         <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I18" s="1">
         <v>777777</v>
@@ -12689,7 +12710,7 @@
         <v>239</v>
       </c>
       <c r="H19" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I19" s="1">
         <v>777777</v>
@@ -12751,7 +12772,7 @@
         <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I20" s="1">
         <v>777777</v>
@@ -12813,7 +12834,7 @@
         <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I21" s="1">
         <v>777777</v>
@@ -12875,7 +12896,7 @@
         <v>247</v>
       </c>
       <c r="H22" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>99</v>
@@ -12937,7 +12958,7 @@
         <v>251</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I23" s="1">
         <v>777777</v>
@@ -12999,7 +13020,7 @@
         <v>253</v>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I24" s="1">
         <v>777777</v>
@@ -13061,7 +13082,7 @@
         <v>255</v>
       </c>
       <c r="H25" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I25" s="1">
         <v>777777</v>
@@ -13123,7 +13144,7 @@
         <v>257</v>
       </c>
       <c r="H26" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I26" s="1">
         <v>777777</v>
@@ -13185,7 +13206,7 @@
         <v>259</v>
       </c>
       <c r="H27" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I27" s="1">
         <v>777777</v>
@@ -13247,7 +13268,7 @@
         <v>261</v>
       </c>
       <c r="H28" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I28" s="1">
         <v>777777</v>
@@ -13309,7 +13330,7 @@
         <v>263</v>
       </c>
       <c r="H29" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I29" s="1">
         <v>777777</v>

--- a/package_301/data/api_test.xlsx
+++ b/package_301/data/api_test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="24345"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28800"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="register" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="add" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="audit" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -28,7 +29,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -46,25 +47,16 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10.5"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,7 +76,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -92,7 +106,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -115,44 +129,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,6 +157,36 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -202,13 +209,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,19 +317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,61 +347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,13 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,30 +393,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -398,35 +405,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,16 +431,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +465,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -501,10 +508,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="20" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="22" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -513,19 +520,19 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -534,116 +541,116 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="34" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="19" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="23" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="23" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="14" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="25" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,10 +667,13 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1019,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1203,7 +1213,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1265,7 +1275,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1332,7 +1342,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1396,7 +1406,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1460,7 +1470,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1527,7 +1537,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1545,7 +1555,7 @@
       <c r="I7" s="1" t="n">
         <v>13912541274</v>
       </c>
-      <c r="S7" s="11" t="inlineStr">
+      <c r="S7" s="12" t="inlineStr">
         <is>
           <t>123456789123456789</t>
         </is>
@@ -1596,7 +1606,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1663,7 +1673,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1730,7 +1740,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1792,7 +1802,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1851,7 +1861,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F12" s="7" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1910,7 +1920,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1972,7 +1982,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2039,7 +2049,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2103,7 +2113,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2170,7 +2180,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="F17" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2237,7 +2247,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2301,7 +2311,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2368,7 +2378,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2435,7 +2445,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2502,7 +2512,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -2571,7 +2581,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
+      <c r="F23" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -2633,7 +2643,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="F24" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -2692,7 +2702,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
+      <c r="F25" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -2754,7 +2764,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F26" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -2816,7 +2826,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
+      <c r="F27" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -2875,7 +2885,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="F28" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -2937,7 +2947,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -2999,7 +3009,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F30" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -3061,7 +3071,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
+      <c r="F31" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -3125,7 +3135,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="F32" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -3187,7 +3197,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
+      <c r="F33" s="7" t="inlineStr">
         <is>
           <t>/member/list</t>
         </is>
@@ -4136,7 +4146,7 @@
       <c r="Q47" s="1" t="n">
         <v>66666.60000000001</v>
       </c>
-      <c r="R47" s="11" t="inlineStr">
+      <c r="R47" s="12" t="inlineStr">
         <is>
           <t>123456789123456789</t>
         </is>
@@ -4206,7 +4216,7 @@
       <c r="Q48" s="1" t="n">
         <v>66666.60000000001</v>
       </c>
-      <c r="R48" s="11" t="inlineStr">
+      <c r="R48" s="12" t="inlineStr">
         <is>
           <t>12345678912345678912</t>
         </is>
@@ -7384,93 +7394,93 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
+    <hyperlink display="/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink display="/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink display="/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink display="/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink display="/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink display="/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink display="/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink display="/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
+    <hyperlink display="/member/recharge" ref="F14" r:id="rId13"/>
+    <hyperlink display="/member/recharge" ref="F15" r:id="rId14"/>
+    <hyperlink display="/member/recharge" ref="F16" r:id="rId15"/>
+    <hyperlink display="/member/recharge" ref="F17" r:id="rId16"/>
+    <hyperlink display="/member/recharge" ref="F18" r:id="rId17"/>
+    <hyperlink display="/member/recharge" ref="F19" r:id="rId18"/>
+    <hyperlink display="/member/recharge" ref="F20" r:id="rId19"/>
+    <hyperlink display="/member/recharge" ref="F21" r:id="rId20"/>
+    <hyperlink display="/member/recharge" ref="F22" r:id="rId21"/>
+    <hyperlink display="/member/withdraw" ref="F23" r:id="rId22"/>
+    <hyperlink display="/member/withdraw" ref="F24" r:id="rId23"/>
+    <hyperlink display="/member/withdraw" ref="F25" r:id="rId24"/>
+    <hyperlink display="/member/withdraw" ref="F26" r:id="rId25"/>
+    <hyperlink display="/member/withdraw" ref="F27" r:id="rId26"/>
+    <hyperlink display="/member/withdraw" ref="F28" r:id="rId27"/>
+    <hyperlink display="/member/withdraw" ref="F29" r:id="rId28"/>
+    <hyperlink display="/member/withdraw" ref="F30" r:id="rId29"/>
+    <hyperlink display="/member/withdraw" ref="F31" r:id="rId30"/>
+    <hyperlink display="/member/withdraw" ref="F32" r:id="rId31"/>
+    <hyperlink display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
+    <hyperlink display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
+    <hyperlink display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
+    <hyperlink display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
+    <hyperlink display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
+    <hyperlink display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
+    <hyperlink display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
+    <hyperlink display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
+    <hyperlink display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
+    <hyperlink display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
+    <hyperlink display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
+    <hyperlink display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
+    <hyperlink display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
+    <hyperlink display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
+    <hyperlink display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
+    <hyperlink display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
+    <hyperlink display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
+    <hyperlink display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
+    <hyperlink display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
+    <hyperlink display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
+    <hyperlink display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
+    <hyperlink display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
+    <hyperlink display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
+    <hyperlink display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
+    <hyperlink display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
+    <hyperlink display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
+    <hyperlink display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
+    <hyperlink display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
+    <hyperlink display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
+    <hyperlink display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
+    <hyperlink display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
+    <hyperlink display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
+    <hyperlink display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
+    <hyperlink display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
+    <hyperlink display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
+    <hyperlink display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
+    <hyperlink display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
+    <hyperlink display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
+    <hyperlink display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
+    <hyperlink display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
+    <hyperlink display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
+    <hyperlink display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
+    <hyperlink display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
+    <hyperlink display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
+    <hyperlink display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
+    <hyperlink display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
+    <hyperlink display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
+    <hyperlink display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
+    <hyperlink display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
+    <hyperlink display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
+    <hyperlink display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
+    <hyperlink display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
+    <hyperlink display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
+    <hyperlink display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
+    <hyperlink display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
+    <hyperlink display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7478,7 +7488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7486,44 +7496,44 @@
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="8.375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="10.375"/>
+    <col customWidth="1" max="1" min="1" style="9" width="8.375"/>
+    <col customWidth="1" max="2" min="2" style="9" width="10.375"/>
     <col customWidth="1" max="3" min="3" style="2" width="35.875"/>
-    <col customWidth="1" max="4" min="4" style="8" width="9.375"/>
-    <col customWidth="1" max="5" min="5" style="8" width="7.375"/>
-    <col customWidth="1" max="7" min="7" style="8" width="11.375"/>
-    <col customWidth="1" max="8" min="8" style="8" width="48.25"/>
-    <col customWidth="1" max="9" min="9" style="8" width="33.75"/>
-    <col customWidth="1" max="10" min="10" style="8" width="12.625"/>
-    <col customWidth="1" max="11" min="11" style="8" width="20.375"/>
-    <col customWidth="1" max="13" min="12" style="8" width="14.875"/>
-    <col customWidth="1" max="16" min="14" style="8" width="9"/>
-    <col customWidth="1" max="17" min="17" style="8" width="35.25"/>
-    <col customWidth="1" max="16384" min="18" style="8" width="9"/>
+    <col customWidth="1" max="4" min="4" style="9" width="9.375"/>
+    <col customWidth="1" max="5" min="5" style="9" width="7.375"/>
+    <col customWidth="1" max="7" min="7" style="9" width="11.375"/>
+    <col customWidth="1" max="8" min="8" style="9" width="48.25"/>
+    <col customWidth="1" max="9" min="9" style="9" width="33.75"/>
+    <col customWidth="1" max="10" min="10" style="9" width="12.625"/>
+    <col customWidth="1" max="11" min="11" style="9" width="20.375"/>
+    <col customWidth="1" max="13" min="12" style="9" width="14.875"/>
+    <col customWidth="1" max="16" min="14" style="9" width="9"/>
+    <col customWidth="1" max="17" min="17" style="9" width="35.25"/>
+    <col customWidth="1" max="16384" min="18" style="9" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
@@ -7543,52 +7553,52 @@
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="I1" s="8" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>mobilephone</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="L1" s="10" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="M1" s="10" t="inlineStr">
         <is>
           <t>regname</t>
         </is>
       </c>
-      <c r="N1" s="10" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="O1" s="10" t="inlineStr">
+      <c r="O1" s="11" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="P1" s="10" t="inlineStr">
+      <c r="P1" s="11" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="Q1" s="10" t="inlineStr">
+      <c r="Q1" s="11" t="inlineStr">
         <is>
           <t>msg</t>
         </is>
@@ -7608,12 +7618,12 @@
           <t>注册成功，昵称不为空</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -7623,44 +7633,44 @@
           <t>select leaveamount from member where mobilephone = #phone#</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="H2" s="8" t="inlineStr">
+      <c r="H2" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone2}", "pwd":"123456", "regname":"${nickname1}"}</t>
         </is>
       </c>
-      <c r="I2" s="8" t="inlineStr">
+      <c r="I2" s="9" t="inlineStr">
         <is>
           <t>{"status":"1", "code":"10001", "data":"null", "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="9" t="n">
         <v>13912541271</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="9" t="n">
         <v>123456</v>
       </c>
-      <c r="M2" s="8" t="inlineStr">
+      <c r="M2" s="9" t="inlineStr">
         <is>
           <t>${nickname2}</t>
         </is>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="9" t="n">
         <v>10001</v>
       </c>
-      <c r="P2" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q2" s="8" t="inlineStr">
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q2" s="9" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
@@ -7676,12 +7686,12 @@
           <t>注册失败，手机号码为空</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -7691,46 +7701,46 @@
           <t>select leaveamount from member where mobilephone = #phone#</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="H3" s="8" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone3}", "pwd":"123456", "regname":"${nickname2}"}</t>
         </is>
       </c>
-      <c r="I3" s="8" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>{"status":"1", "code":"10001", "data":"null", "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="n">
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="n">
         <v>123456</v>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>${nickname3}</t>
         </is>
       </c>
-      <c r="N3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="n">
+      <c r="N3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="n">
         <v>20103</v>
       </c>
-      <c r="P3" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q3" s="8" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q3" s="9" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
         </is>
@@ -7746,57 +7756,57 @@
           <t>注册失败，密码为空</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone4}", "pwd":"123456", "regname":"${nickname2}"}</t>
         </is>
       </c>
-      <c r="I4" s="8" t="inlineStr">
+      <c r="I4" s="9" t="inlineStr">
         <is>
           <t>{"status":"1", "code":"10001", "data":"null", "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="9" t="n">
         <v>13912541272</v>
       </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="M4" s="8" t="inlineStr">
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="M4" s="9" t="inlineStr">
         <is>
           <t>${nickname4}</t>
         </is>
       </c>
-      <c r="N4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="n">
+      <c r="N4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="n">
         <v>20103</v>
       </c>
-      <c r="P4" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q4" s="8" t="inlineStr">
+      <c r="P4" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q4" s="9" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
         </is>
@@ -7812,55 +7822,55 @@
           <t>注册失败，密码长度过短</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
       <c r="F5" s="1" t="n"/>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone5}", "pwd":"123456", "regname":"${nickname2}"}</t>
         </is>
       </c>
-      <c r="I5" s="8" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>{"status":"1", "code":"10001", "data":"null", "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="9" t="n">
         <v>13912541273</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="M5" s="8" t="inlineStr">
+      <c r="M5" s="9" t="inlineStr">
         <is>
           <t>${nickname5}</t>
         </is>
       </c>
-      <c r="N5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="n">
+      <c r="N5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="n">
         <v>20108</v>
       </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q5" s="8" t="inlineStr">
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q5" s="9" t="inlineStr">
         <is>
           <t>密码长度必须为 6~18</t>
         </is>
@@ -7876,57 +7886,57 @@
           <t>注册失败，密码长度过长</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
       <c r="F6" s="1" t="n"/>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="H6" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone6}", "pwd":"123456", "regname":"${nickname3}"}</t>
         </is>
       </c>
-      <c r="I6" s="8" t="inlineStr">
+      <c r="I6" s="9" t="inlineStr">
         <is>
           <t>{"status":"1", "code":"10001", "data":"null", "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="9" t="n">
         <v>13912541274</v>
       </c>
-      <c r="K6" s="8" t="inlineStr">
+      <c r="K6" s="9" t="inlineStr">
         <is>
           <t>123456789123456789</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr">
+      <c r="M6" s="9" t="inlineStr">
         <is>
           <t>${nickname6}</t>
         </is>
       </c>
-      <c r="N6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="n">
+      <c r="N6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="n">
         <v>20108</v>
       </c>
-      <c r="P6" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q6" s="8" t="inlineStr">
+      <c r="P6" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q6" s="9" t="inlineStr">
         <is>
           <t>密码长度必须为 6~18</t>
         </is>
@@ -7946,55 +7956,55 @@
           <t>注册失败，手机格式不正确</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="G7" s="9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="H7" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone7}", "pwd":"123456", "regname":"${nickname3}"}</t>
         </is>
       </c>
-      <c r="I7" s="8" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
         <is>
           <t>{"status":"1", "code":"10001", "data":"null", "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="9" t="n">
         <v>123456</v>
       </c>
-      <c r="M7" s="8" t="inlineStr">
+      <c r="M7" s="9" t="inlineStr">
         <is>
           <t>${nickname7}</t>
         </is>
       </c>
-      <c r="N7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8" t="n">
+      <c r="N7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" t="n">
         <v>20109</v>
       </c>
-      <c r="P7" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q7" s="8" t="inlineStr">
+      <c r="P7" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q7" s="9" t="inlineStr">
         <is>
           <t>手机号码格式不正确</t>
         </is>
@@ -8010,55 +8020,55 @@
           <t>注册失败，手机号码已被注册</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone8}", "pwd":"123456", "regname":"${nickname3}"}</t>
         </is>
       </c>
-      <c r="I8" s="8" t="inlineStr">
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>{"status":"1", "code":"10001", "data":"null", "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="9" t="n">
         <v>123456</v>
       </c>
-      <c r="M8" s="8" t="inlineStr">
+      <c r="M8" s="9" t="inlineStr">
         <is>
           <t>${nickname8}</t>
         </is>
       </c>
-      <c r="N8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8" t="n">
+      <c r="N8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="n">
         <v>20110</v>
       </c>
-      <c r="P8" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q8" s="8" t="inlineStr">
+      <c r="P8" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q8" s="9" t="inlineStr">
         <is>
           <t>手机号码已被注册</t>
         </is>
@@ -8074,50 +8084,50 @@
           <t>登陆成功</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone_1}", "pwd":"123456"}</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="9" t="n">
         <v>123456</v>
       </c>
-      <c r="M9" s="8" t="inlineStr">
+      <c r="M9" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="9" t="n">
         <v>10001</v>
       </c>
-      <c r="P9" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q9" s="8" t="inlineStr">
+      <c r="P9" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q9" s="9" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
@@ -8133,46 +8143,46 @@
           <t>登陆失败，手机号码为空</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>{"pwd":"123456"}</t>
         </is>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="9" t="n">
         <v>123456</v>
       </c>
-      <c r="M10" s="8" t="inlineStr">
+      <c r="M10" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8" t="n">
+      <c r="N10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="n">
         <v>20103</v>
       </c>
-      <c r="P10" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q10" s="8" t="inlineStr">
+      <c r="P10" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q10" s="9" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
         </is>
@@ -8188,46 +8198,46 @@
           <t>登陆失败，密码为空</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="G11" s="8" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr">
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone_1}"}</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="M11" s="8" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8" t="n">
+      <c r="N11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="n">
         <v>20103</v>
       </c>
-      <c r="P11" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q11" s="8" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q11" s="9" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
         </is>
@@ -8243,49 +8253,49 @@
           <t>登陆失败，用户名或者密码错误</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="G12" s="8" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone":"${phone_1}", "pwd":"123457"}</t>
         </is>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="9" t="n">
         <v>123457</v>
       </c>
-      <c r="M12" s="8" t="inlineStr">
+      <c r="M12" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8" t="n">
+      <c r="N12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" t="n">
         <v>20111</v>
       </c>
-      <c r="P12" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="inlineStr">
+      <c r="P12" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q12" s="9" t="inlineStr">
         <is>
           <t>用户名或者密码错误</t>
         </is>
@@ -8305,44 +8315,44 @@
           <t>充值成功</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G13" s="8" t="inlineStr">
+      <c r="G13" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K13" s="8" t="inlineStr">
+      <c r="K13" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="9" t="n">
         <v>10001</v>
       </c>
-      <c r="P13" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q13" s="8" t="inlineStr">
+      <c r="P13" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q13" s="9" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
@@ -8358,46 +8368,46 @@
           <t>充值失败，手机号码为空</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G14" s="8" t="inlineStr">
+      <c r="G14" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="N14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8" t="n">
+      <c r="N14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="n">
         <v>20103</v>
       </c>
-      <c r="P14" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q14" s="8" t="inlineStr">
+      <c r="P14" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q14" s="9" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
         </is>
@@ -8413,44 +8423,44 @@
           <t>充值失败，此手机号对应的会员不存在</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G15" s="8" t="inlineStr">
+      <c r="G15" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="9" t="n">
         <v>13912541000</v>
       </c>
-      <c r="K15" s="8" t="inlineStr">
+      <c r="K15" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="N15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8" t="n">
+      <c r="N15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9" t="n">
         <v>20104</v>
       </c>
-      <c r="P15" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q15" s="8" t="inlineStr">
+      <c r="P15" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q15" s="9" t="inlineStr">
         <is>
           <t>此手机号对应的会员不存在</t>
         </is>
@@ -8466,44 +8476,44 @@
           <t>充值失败，手机格式不正确</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="K16" s="8" t="inlineStr">
+      <c r="K16" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="N16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8" t="n">
+      <c r="N16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9" t="n">
         <v>20109</v>
       </c>
-      <c r="P16" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q16" s="8" t="inlineStr">
+      <c r="P16" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q16" s="9" t="inlineStr">
         <is>
           <t>手机格式不正确</t>
         </is>
@@ -8519,41 +8529,41 @@
           <t>充值失败，充值额度为空</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
+      <c r="G17" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K17" s="8" t="inlineStr">
+      <c r="K17" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8" t="n">
+      <c r="N17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9" t="n">
         <v>20115</v>
       </c>
-      <c r="P17" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q17" s="8" t="inlineStr">
+      <c r="P17" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q17" s="9" t="inlineStr">
         <is>
           <t>请输入金额</t>
         </is>
@@ -8569,44 +8579,44 @@
           <t>充值失败，输入金额小数超过两位</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K18" s="8" t="inlineStr">
+      <c r="K18" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="9" t="n">
         <v>500.123</v>
       </c>
-      <c r="N18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8" t="n">
+      <c r="N18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9" t="n">
         <v>20116</v>
       </c>
-      <c r="P18" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q18" s="8" t="inlineStr">
+      <c r="P18" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q18" s="9" t="inlineStr">
         <is>
           <t>输入金额的金额小数不能超过两位</t>
         </is>
@@ -8622,44 +8632,44 @@
           <t>充值失败，充值额度低于0(负数)</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E19" s="8" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G19" s="8" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K19" s="8" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="9" t="n">
         <v>-5</v>
       </c>
-      <c r="N19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8" t="n">
+      <c r="N19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9" t="n">
         <v>20117</v>
       </c>
-      <c r="P19" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q19" s="8" t="inlineStr">
+      <c r="P19" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q19" s="9" t="inlineStr">
         <is>
           <t>请输入范围在 0 到 50 万之间的正数</t>
         </is>
@@ -8675,44 +8685,44 @@
           <t>充值失败，充值额度高于50万</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K20" s="8" t="inlineStr">
+      <c r="K20" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="9" t="n">
         <v>500001</v>
       </c>
-      <c r="N20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8" t="n">
+      <c r="N20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="n">
         <v>20117</v>
       </c>
-      <c r="P20" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q20" s="8" t="inlineStr">
+      <c r="P20" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q20" s="9" t="inlineStr">
         <is>
           <t>请输入范围在 0 到 50 万之间的正数</t>
         </is>
@@ -8728,46 +8738,46 @@
           <t>充值失败，充值额度输入非数字</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E21" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G21" s="8" t="inlineStr">
+      <c r="G21" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="J21" s="8" t="n">
+      <c r="J21" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="K21" s="8" t="inlineStr">
+      <c r="K21" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L21" s="8" t="inlineStr">
+      <c r="L21" s="9" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="N21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8" t="n">
+      <c r="N21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9" t="n">
         <v>20118</v>
       </c>
-      <c r="P21" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q21" s="8" t="inlineStr">
+      <c r="P21" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q21" s="9" t="inlineStr">
         <is>
           <t>请输入数字</t>
         </is>
@@ -8787,31 +8797,31 @@
           <t>取现成功</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D22" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="G22" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="O22" s="8" t="n">
+      <c r="O22" s="9" t="n">
         <v>10001</v>
       </c>
-      <c r="Q22" s="8" t="inlineStr">
+      <c r="Q22" s="9" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
@@ -8827,33 +8837,33 @@
           <t>取现失败，手机号码为空</t>
         </is>
       </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E23" s="8" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G23" s="8" t="inlineStr">
+      <c r="G23" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="O23" s="8" t="n">
+      <c r="O23" s="9" t="n">
         <v>20103</v>
       </c>
-      <c r="P23" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q23" s="8" t="inlineStr">
+      <c r="P23" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q23" s="9" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
         </is>
@@ -8869,36 +8879,36 @@
           <t>取现失败，此手机号对应的会员不存在</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E24" s="8" t="inlineStr">
+      <c r="E24" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G24" s="8" t="inlineStr">
+      <c r="G24" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="9" t="n">
         <v>13912541000</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="O24" s="8" t="n">
+      <c r="O24" s="9" t="n">
         <v>20104</v>
       </c>
-      <c r="P24" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q24" s="8" t="inlineStr">
+      <c r="P24" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q24" s="9" t="inlineStr">
         <is>
           <t>此手机号对应的会员不存在</t>
         </is>
@@ -8914,36 +8924,36 @@
           <t>取现失败，手机号码格式不正确</t>
         </is>
       </c>
-      <c r="D25" s="8" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E25" s="8" t="inlineStr">
+      <c r="E25" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G25" s="8" t="inlineStr">
+      <c r="G25" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="L25" s="8" t="n">
+      <c r="L25" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="O25" s="8" t="n">
+      <c r="O25" s="9" t="n">
         <v>20109</v>
       </c>
-      <c r="P25" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q25" s="8" t="inlineStr">
+      <c r="P25" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q25" s="9" t="inlineStr">
         <is>
           <t>手机号码格式不正确</t>
         </is>
@@ -8959,33 +8969,33 @@
           <t>取现失败，请输入金额</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E26" s="8" t="inlineStr">
+      <c r="E26" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G26" s="8" t="inlineStr">
+      <c r="G26" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="O26" s="8" t="n">
+      <c r="O26" s="9" t="n">
         <v>20115</v>
       </c>
-      <c r="P26" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q26" s="8" t="inlineStr">
+      <c r="P26" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q26" s="9" t="inlineStr">
         <is>
           <t>请输入金额</t>
         </is>
@@ -9001,36 +9011,36 @@
           <t>取现失败，输入金额小数超过两位</t>
         </is>
       </c>
-      <c r="D27" s="8" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E27" s="8" t="inlineStr">
+      <c r="E27" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G27" s="8" t="inlineStr">
+      <c r="G27" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="L27" s="8" t="n">
+      <c r="L27" s="9" t="n">
         <v>500.123</v>
       </c>
-      <c r="O27" s="8" t="n">
+      <c r="O27" s="9" t="n">
         <v>20116</v>
       </c>
-      <c r="P27" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q27" s="8" t="inlineStr">
+      <c r="P27" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q27" s="9" t="inlineStr">
         <is>
           <t>输入金额的金额小数不能超过两位</t>
         </is>
@@ -9046,36 +9056,36 @@
           <t>取现失败，充值额度低于0(负数)</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
+      <c r="D28" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E28" s="8" t="inlineStr">
+      <c r="E28" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G28" s="8" t="inlineStr">
+      <c r="G28" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="L28" s="8" t="n">
+      <c r="L28" s="9" t="n">
         <v>-5</v>
       </c>
-      <c r="O28" s="8" t="n">
+      <c r="O28" s="9" t="n">
         <v>20117</v>
       </c>
-      <c r="P28" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="inlineStr">
+      <c r="P28" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q28" s="9" t="inlineStr">
         <is>
           <t>请输入范围在 0 到 50 万之间的正数</t>
         </is>
@@ -9095,36 +9105,36 @@
           <t>取现失败，充值额度高于50万</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E29" s="8" t="inlineStr">
+      <c r="E29" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G29" s="8" t="inlineStr">
+      <c r="G29" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J29" s="8" t="n">
+      <c r="J29" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="L29" s="8" t="n">
+      <c r="L29" s="9" t="n">
         <v>500001</v>
       </c>
-      <c r="O29" s="8" t="n">
+      <c r="O29" s="9" t="n">
         <v>20117</v>
       </c>
-      <c r="P29" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q29" s="8" t="inlineStr">
+      <c r="P29" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q29" s="9" t="inlineStr">
         <is>
           <t>请输入范围在 0 到 50 万之间的正数</t>
         </is>
@@ -9140,38 +9150,38 @@
           <t>取现失败，取现额度输入非数字</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D30" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E30" s="8" t="inlineStr">
+      <c r="E30" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G30" s="8" t="inlineStr">
+      <c r="G30" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J30" s="8" t="n">
+      <c r="J30" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="L30" s="8" t="inlineStr">
+      <c r="L30" s="9" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="O30" s="8" t="n">
+      <c r="O30" s="9" t="n">
         <v>20118</v>
       </c>
-      <c r="P30" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q30" s="8" t="inlineStr">
+      <c r="P30" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q30" s="9" t="inlineStr">
         <is>
           <t>请输入数字</t>
         </is>
@@ -9187,36 +9197,36 @@
           <t>取现失败，余额不足，请修改提现额度</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E31" s="8" t="inlineStr">
+      <c r="E31" s="9" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G31" s="8" t="inlineStr">
+      <c r="G31" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="J31" s="8" t="n">
+      <c r="J31" s="9" t="n">
         <v>13912541270</v>
       </c>
-      <c r="L31" s="8" t="n">
+      <c r="L31" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="O31" s="8" t="n">
+      <c r="O31" s="9" t="n">
         <v>20119</v>
       </c>
-      <c r="P31" s="8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Q31" s="8" t="inlineStr">
+      <c r="P31" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q31" s="9" t="inlineStr">
         <is>
           <t>余额不足，请修改提现额度</t>
         </is>
@@ -9291,69 +9301,69 @@
       <c r="B45" s="1" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="n">
+      <c r="A94" s="9" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="n">
+      <c r="A95" s="9" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="n">
+      <c r="A96" s="9" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="8" t="n">
+      <c r="A97" s="9" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="n">
+      <c r="A98" s="9" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="n">
+      <c r="A99" s="9" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="n">
+      <c r="A100" s="9" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="n">
+      <c r="A101" s="9" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="8" t="n">
+      <c r="A102" s="9" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="8" t="n">
+      <c r="A103" s="9" t="n">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="get" ref="E13" r:id="rId12"/>
+    <hyperlink display="/member/register" ref="G2" r:id="rId1"/>
+    <hyperlink display="/member/register" ref="G3" r:id="rId2"/>
+    <hyperlink display="/member/register" ref="G4" r:id="rId3"/>
+    <hyperlink display="/member/register" ref="G5" r:id="rId4"/>
+    <hyperlink display="/member/register" ref="G6" r:id="rId5"/>
+    <hyperlink display="/member/register" ref="G7" r:id="rId6"/>
+    <hyperlink display="/member/register" ref="G8" r:id="rId7"/>
+    <hyperlink display="/member/login" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
+    <hyperlink display="/member/login" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink display="/member/login" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink display="/member/login" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink display="get" ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9361,7 +9371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9369,7 +9379,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -9538,7 +9548,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -9605,7 +9615,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -9669,7 +9679,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -9733,7 +9743,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -9778,17 +9788,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink display="/member/login" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="/member/login" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="/member/login" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink display="/member/login" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9796,7 +9806,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9968,7 +9978,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10037,7 +10047,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10111,7 +10121,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10180,7 +10190,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10249,7 +10259,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="G6" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10321,7 +10331,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10339,7 +10349,7 @@
       <c r="J7" s="1" t="n">
         <v>13912541274</v>
       </c>
-      <c r="T7" s="11" t="inlineStr">
+      <c r="T7" s="12" t="inlineStr">
         <is>
           <t>12345678901234567890</t>
         </is>
@@ -10395,7 +10405,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10467,7 +10477,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -10521,29 +10531,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G9" r:id="rId8"/>
+    <hyperlink display="/member/register" ref="G2" r:id="rId1"/>
+    <hyperlink display="/member/register" ref="G3" r:id="rId2"/>
+    <hyperlink display="/member/register" ref="G4" r:id="rId3"/>
+    <hyperlink display="/member/register" ref="G5" r:id="rId4"/>
+    <hyperlink display="/member/register" ref="G6" r:id="rId5"/>
+    <hyperlink display="/member/register" ref="G7" r:id="rId6"/>
+    <hyperlink display="/member/register" ref="G8" r:id="rId7"/>
+    <hyperlink display="/member/register" ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10717,14 +10727,14 @@
           <t>select leaveamount from member where mobilephone = #phone#</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "#phone#", "amount": 500}</t>
+          <t>{"mobilephone": "#phone#", "amount": 4000}</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -10758,7 +10768,7 @@
       </c>
       <c r="AA2" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -10786,14 +10796,14 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{"amount": 500}</t>
+          <t>{"amount": 4000}</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
@@ -10850,14 +10860,14 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "#noRegPhone#", "amount": 500}</t>
+          <t>{"mobilephone": "#noRegPhone#", "amount": 4000}</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -10919,14 +10929,14 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "123", "amount": 500}</t>
+          <t>{"mobilephone": "123", "amount": 4000}</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
@@ -10987,7 +10997,7 @@
         </is>
       </c>
       <c r="F6" s="0" t="n"/>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -11054,7 +11064,7 @@
         </is>
       </c>
       <c r="F7" s="0" t="n"/>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -11124,7 +11134,7 @@
         </is>
       </c>
       <c r="F8" s="0" t="n"/>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -11194,7 +11204,7 @@
         </is>
       </c>
       <c r="F9" s="0" t="n"/>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -11264,7 +11274,7 @@
         </is>
       </c>
       <c r="F10" s="0" t="n"/>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -11313,30 +11323,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G10" r:id="rId9"/>
+    <hyperlink display="/member/recharge" ref="G2" r:id="rId1"/>
+    <hyperlink display="/member/recharge" ref="G3" r:id="rId2"/>
+    <hyperlink display="/member/recharge" ref="G4" r:id="rId3"/>
+    <hyperlink display="/member/recharge" ref="G5" r:id="rId4"/>
+    <hyperlink display="/member/recharge" ref="G6" r:id="rId5"/>
+    <hyperlink display="/member/recharge" ref="G7" r:id="rId6"/>
+    <hyperlink display="/member/recharge" ref="G8" r:id="rId7"/>
+    <hyperlink display="/member/recharge" ref="G9" r:id="rId8"/>
+    <hyperlink display="/member/recharge" ref="G10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11510,14 +11520,14 @@
           <t>select leaveamount from member where mobilephone = #phone#</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270", "amount": 500}</t>
+          <t>{"mobilephone": "#phone#", "amount": 500}</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -11551,7 +11561,7 @@
       </c>
       <c r="AA2" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -11579,7 +11589,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -11643,29 +11653,31 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541000", "amount": 500}</t>
+          <t>{"mobilephone": "#noRegPhone#", "amount": 500}</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20104", "data": null, "msg": "此手机号对应的会员不存在"}</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>13912541000</v>
+          <t>{"status": 1, "code": "20104", "data": null, "msg": "此手机号对应的会员不存在"}</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>#noRegPhone#</t>
+        </is>
       </c>
       <c r="U4" s="1" t="n">
         <v>500</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1" t="n">
         <v>20104</v>
@@ -11682,7 +11694,7 @@
       </c>
       <c r="AA4" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -11710,7 +11722,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
@@ -11778,14 +11790,14 @@
         </is>
       </c>
       <c r="F6" s="0" t="n"/>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270"}</t>
+          <t>{"mobilephone": "#phone#"}</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
@@ -11793,8 +11805,10 @@
           <t>{"status": 0, "code": "20115", "data": null, "msg": "请输入金额"}</t>
         </is>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>13912541270</v>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
       </c>
       <c r="W6" s="1" t="n">
         <v>0</v>
@@ -11843,14 +11857,14 @@
         </is>
       </c>
       <c r="F7" s="0" t="n"/>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270", "amount": 500.123}</t>
+          <t>{"mobilephone": "#phone#", "amount": 500.123}</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
@@ -11858,8 +11872,10 @@
           <t>{"status": 0, "code": "20116", "data": null, "msg": "输入金额的金额小数不能超过两位"}</t>
         </is>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>13912541270</v>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
       </c>
       <c r="U7" s="1" t="n">
         <v>500.123</v>
@@ -11911,14 +11927,14 @@
         </is>
       </c>
       <c r="F8" s="0" t="n"/>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270", "amount": -5}</t>
+          <t>{"mobilephone": "#phone#", "amount": -5}</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
@@ -11926,8 +11942,10 @@
           <t>{"status": 0, "code": "20117", "data": null, "msg": "请输入范围在0到50万之间的正数"}</t>
         </is>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>13912541270</v>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
       </c>
       <c r="U8" s="1" t="n">
         <v>-5</v>
@@ -11979,14 +11997,14 @@
         </is>
       </c>
       <c r="F9" s="0" t="n"/>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270", "amount": 500001}</t>
+          <t>{"mobilephone": "#phone#", "amount": 500001}</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
@@ -11994,8 +12012,10 @@
           <t>{"status": 0, "code": "20117", "data": null, "msg": "请输入范围在0到50万之间的正数"}</t>
         </is>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>13912541270</v>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
       </c>
       <c r="U9" s="1" t="n">
         <v>500001</v>
@@ -12047,14 +12067,14 @@
         </is>
       </c>
       <c r="F10" s="0" t="n"/>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270", "amount": "abc"}</t>
+          <t>{"mobilephone": "#phone#", "amount": "abc"}</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
@@ -12062,8 +12082,10 @@
           <t>{"status": 0, "code": "20118", "data": null, "msg": "请输入数字"}</t>
         </is>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>13912541270</v>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
@@ -12117,29 +12139,31 @@
         </is>
       </c>
       <c r="F11" s="0" t="n"/>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270", "amount": 10000}</t>
+          <t>{"mobilephone": "#phone#", "amount": 400000}</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20119", "data": null, "msg": "余额不足，请修改提现额度"}</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>13912541270</v>
+          <t>{"status": 1, "code": "20119", "data": null, "msg": "余额不足，请修改提现额度"}</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
       </c>
       <c r="U11" s="1" t="n">
         <v>400000</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1" t="n">
         <v>20119</v>
@@ -12156,37 +12180,37 @@
       </c>
       <c r="AA11" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G11" r:id="rId10"/>
+    <hyperlink display="/member/withdraw" ref="G2" r:id="rId1"/>
+    <hyperlink display="/member/withdraw" ref="G3" r:id="rId2"/>
+    <hyperlink display="/member/withdraw" ref="G4" r:id="rId3"/>
+    <hyperlink display="/member/withdraw" ref="G5" r:id="rId4"/>
+    <hyperlink display="/member/withdraw" ref="G6" r:id="rId5"/>
+    <hyperlink display="/member/withdraw" ref="G7" r:id="rId6"/>
+    <hyperlink display="/member/withdraw" ref="G8" r:id="rId7"/>
+    <hyperlink display="/member/withdraw" ref="G9" r:id="rId8"/>
+    <hyperlink display="/member/withdraw" ref="G10" r:id="rId9"/>
+    <hyperlink display="/member/withdraw" ref="G11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12356,22 +12380,22 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>select leaveamount from member where mobilephone = #phone#</t>
+          <t>SELECT Id FROM loan WHERE MemberID = '85010' ORDER BY CreateTime DESC LIMIT 1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 66666, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -12379,11 +12403,15 @@
           <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
         </is>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>66666</v>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S2" s="1" t="n">
         <v>12345678</v>
@@ -12437,19 +12465,14 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>select leaveamount from member where mobilephone = #phone#</t>
-        </is>
-      </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{"password": "12345678", "loanId": 66666, "amount": 500}</t>
+          <t>{"password": "12345678", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
@@ -12457,8 +12480,10 @@
           <t>{"status": 0, "code": "11003", "data": null, "msg": "参数错误:所有参数都不能为空"}</t>
         </is>
       </c>
-      <c r="R3" s="1" t="n">
-        <v>66666</v>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S3" s="1" t="n">
         <v>12345678</v>
@@ -12509,12 +12534,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "amount": 500}</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -12522,8 +12547,10 @@
           <t>{"status": 0, "code": "11003", "data": null, "msg": "参数错误:所有参数都不能为空"}</t>
         </is>
       </c>
-      <c r="K4" s="1" t="n">
-        <v>77777</v>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
       </c>
       <c r="S4" s="1" t="n">
         <v>12345678</v>
@@ -12579,12 +12606,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "loanId": 66666, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
@@ -12592,11 +12619,15 @@
           <t>{"status": 0, "code": "11003", "data": null, "msg": "参数错误:所有参数都不能为空"}</t>
         </is>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>66666</v>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="U5" s="1" t="n">
         <v>500</v>
@@ -12650,12 +12681,12 @@
       <c r="F6" s="0" t="n"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 66666}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": "#loanId#"}</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
@@ -12663,11 +12694,15 @@
           <t>{"status": 0, "code": "11003", "data": null, "msg": "参数错误:所有参数都不能为空"}</t>
         </is>
       </c>
-      <c r="K6" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>66666</v>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S6" s="1" t="n">
         <v>12345678</v>
@@ -12721,12 +12756,12 @@
       <c r="F7" s="0" t="n"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": -1, "password": "12345678", "loanId": 66666, "amount": 500}</t>
+          <t>{"memberId": -1, "password": "12345678", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
@@ -12737,8 +12772,10 @@
       <c r="K7" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="R7" s="1" t="n">
-        <v>66666</v>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S7" s="1" t="n">
         <v>12345678</v>
@@ -12795,12 +12832,12 @@
       <c r="F8" s="0" t="n"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>{"memberId": 0, "password": "12345678", "loanId": 66666, "amount": 500}</t>
+          <t>{"memberId": 0, "password": "12345678", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
@@ -12811,8 +12848,10 @@
       <c r="K8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="1" t="n">
-        <v>66666</v>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S8" s="1" t="n">
         <v>12345678</v>
@@ -12869,12 +12908,12 @@
       <c r="F9" s="0" t="n"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>{"memberId": 77777.5, "password": "12345678", "loanId": 66666, "amount": 500}</t>
+          <t>{"memberId": "#memberId#.5", "password": "12345678", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
@@ -12882,11 +12921,15 @@
           <t>{"status": 0, "code": "11004", "data": null, "msg": "参数错误，memberId必须是大于0的正整数"}</t>
         </is>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>77777.5</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>66666</v>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#.5</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S9" s="1" t="n">
         <v>12345678</v>
@@ -12943,12 +12986,12 @@
       <c r="F10" s="0" t="n"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": -1, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": -1, "amount": 500}</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
@@ -12956,8 +12999,10 @@
           <t>{"status": 0, "code": "11005", "data": null, "msg": "参数错误，loanId必须是大于0的正整数"}</t>
         </is>
       </c>
-      <c r="K10" s="1" t="n">
-        <v>77777</v>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
       </c>
       <c r="R10" s="1" t="n">
         <v>-1</v>
@@ -13017,12 +13062,12 @@
       <c r="F11" s="0" t="n"/>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 0, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": 0, "amount": 500}</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
@@ -13030,8 +13075,10 @@
           <t>{"status": 0, "code": "11005", "data": null, "msg": "参数错误，loanId必须是大于0的正整数"}</t>
         </is>
       </c>
-      <c r="K11" s="1" t="n">
-        <v>77777</v>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
       </c>
       <c r="R11" s="1" t="n">
         <v>0</v>
@@ -13091,12 +13138,12 @@
       <c r="F12" s="0" t="n"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 66666.6, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": 66666.6, "amount": 500}</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
@@ -13104,8 +13151,10 @@
           <t>{"status": 0, "code": "11005", "data": null, "msg": "参数错误，loanId必须是大于0的正整数"}</t>
         </is>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>77777</v>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>66666.60000000001</v>
@@ -13165,12 +13214,12 @@
       <c r="F13" s="0" t="n"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "123", "loanId": 66666.6, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "123", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
@@ -13178,11 +13227,15 @@
           <t>{"status": 0, "code": "11006", "data": null, "msg": "参数错误，password长度必须大于6位且小于18位"}</t>
         </is>
       </c>
-      <c r="K13" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>66666.60000000001</v>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S13" s="1" t="n">
         <v>123</v>
@@ -13239,12 +13292,12 @@
       <c r="F14" s="0" t="n"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "111111", "loanId": 66666.6, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "111111", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
@@ -13252,11 +13305,15 @@
           <t>{"status": 0, "code": null, "data": null, "msg": "密码错误"}</t>
         </is>
       </c>
-      <c r="K14" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>66666.60000000001</v>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S14" s="1" t="n">
         <v>111111</v>
@@ -13310,12 +13367,12 @@
       <c r="F15" s="0" t="n"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "123456789123456789", "loanId": 66666.6, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "123456789123456789", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
@@ -13323,13 +13380,17 @@
           <t>{"status": 0, "code": null, "data": null, "msg": "密码错误"}</t>
         </is>
       </c>
-      <c r="K15" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>66666.60000000001</v>
-      </c>
-      <c r="S15" s="11" t="inlineStr">
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="S15" s="12" t="inlineStr">
         <is>
           <t>123456789123456789</t>
         </is>
@@ -13383,12 +13444,12 @@
       <c r="F16" s="0" t="n"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678912345678912", "loanId": 66666.6, "amount": 500}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678912345678912", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -13396,13 +13457,17 @@
           <t>{"status": 0, "code": "11006", "data": null, "msg": "参数错误，password长度必须大于6位且小于18位"}</t>
         </is>
       </c>
-      <c r="K16" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>66666.60000000001</v>
-      </c>
-      <c r="S16" s="11" t="inlineStr">
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="S16" s="12" t="inlineStr">
         <is>
           <t>12345678912345678912</t>
         </is>
@@ -13459,12 +13524,12 @@
       <c r="F17" s="0" t="n"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 66666, "amount": -500}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": "#loanId#", "amount": -500}</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -13472,11 +13537,15 @@
           <t>{"status": 0, "code": "11007", "data": null, "msg": "参数错误，投资金额必须是能被100整除的正整数"}</t>
         </is>
       </c>
-      <c r="K17" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>66666</v>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S17" s="1" t="n">
         <v>12345678</v>
@@ -13533,12 +13602,12 @@
       <c r="F18" s="0" t="n"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 66666, "amount": 500.5}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": "#loanId#", "amount": 500.5}</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
@@ -13547,11 +13616,15 @@
         </is>
       </c>
       <c r="J18" s="0" t="n"/>
-      <c r="K18" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>66666</v>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S18" s="1" t="n">
         <v>12345678</v>
@@ -13610,12 +13683,12 @@
       <c r="F19" s="0" t="n"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 66666, "amount": 501}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": "#loanId#", "amount": 501}</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
@@ -13623,11 +13696,15 @@
           <t>{"status": 0, "code": "11007", "data": null, "msg": "参数错误，投资金额必须是能被100整除的正整数"}</t>
         </is>
       </c>
-      <c r="K19" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>66666</v>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S19" s="1" t="n">
         <v>12345678</v>
@@ -13684,7 +13761,7 @@
       <c r="F20" s="0" t="n"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
@@ -13766,7 +13843,7 @@
       <c r="F21" s="0" t="n"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
@@ -13848,7 +13925,7 @@
       <c r="F22" s="0" t="n"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H22" s="0" t="inlineStr">
@@ -13930,7 +14007,7 @@
       <c r="F23" s="0" t="n"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
@@ -14012,7 +14089,7 @@
       <c r="F24" s="0" t="n"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
@@ -14094,12 +14171,12 @@
       <c r="F25" s="0" t="n"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": "abc", "password": "12345678", "loanId": 66666, "amount": 500}</t>
+          <t>{"memberId": "abc", "password": "12345678", "loanId": "#loanId#", "amount": 500}</t>
         </is>
       </c>
       <c r="I25" s="0" t="inlineStr">
@@ -14112,8 +14189,10 @@
           <t>abc</t>
         </is>
       </c>
-      <c r="R25" s="1" t="n">
-        <v>66666</v>
+      <c r="R25" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S25" s="1" t="n">
         <v>12345678</v>
@@ -14170,12 +14249,12 @@
       <c r="F26" s="0" t="n"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>/member/bidLoan</t>
+          <t>/loan/bidLoan</t>
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 77777, "password": "12345678", "loanId": 66666, "amount": "abc"}</t>
+          <t>{"memberId": "#memberId#", "password": "12345678", "loanId": "#loanId#", "amount": "abc"}</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
@@ -14183,11 +14262,15 @@
           <t>{"status": 0, "code": "11013", "data": null, "msg": "请根据数值参数的类型对应输入合法的数字"}</t>
         </is>
       </c>
-      <c r="K26" s="1" t="n">
-        <v>77777</v>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>66666</v>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
       </c>
       <c r="S26" s="1" t="n">
         <v>12345678</v>
@@ -14221,31 +14304,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
+    <hyperlink display="/loan/bidLoan" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
+    <hyperlink display="/loan/bidLoan" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink display="/loan/bidLoan" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
+    <hyperlink display="/loan/bidLoan" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
+    <hyperlink display="/loan/bidLoan" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+    <hyperlink display="/loan/bidLoan" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
+    <hyperlink display="/loan/bidLoan" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
+    <hyperlink display="/loan/bidLoan" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
+    <hyperlink display="/loan/bidLoan" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
+    <hyperlink display="/loan/bidLoan" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
+    <hyperlink display="/loan/bidLoan" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
+    <hyperlink display="/loan/bidLoan" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
+    <hyperlink display="/loan/bidLoan" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
+    <hyperlink display="/loan/bidLoan" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
+    <hyperlink display="/loan/bidLoan" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
+    <hyperlink display="/loan/bidLoan" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
+    <hyperlink display="/loan/bidLoan" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
+    <hyperlink display="/loan/bidLoan" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
+    <hyperlink display="/loan/bidLoan" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
+    <hyperlink display="/loan/bidLoan" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
+    <hyperlink display="/loan/bidLoan" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
+    <hyperlink display="/loan/bidLoan" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
+    <hyperlink display="/loan/bidLoan" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
+    <hyperlink display="/loan/bidLoan" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
+    <hyperlink display="/loan/bidLoan" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14253,15 +14336,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="N14" xSplit="3" ySplit="12"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14271,9 +14358,10 @@
     <col customWidth="1" max="7" min="7" style="2" width="9"/>
     <col customWidth="1" max="8" min="8" style="2" width="54.1"/>
     <col customWidth="1" max="9" min="9" style="2" width="75.5333333333333"/>
-    <col customWidth="1" max="10" min="10" style="2" width="9.375"/>
-    <col customWidth="1" max="12" min="12" style="2" width="9.375"/>
-    <col customWidth="1" max="21" min="21" style="2" width="62.75"/>
+    <col customWidth="1" max="10" min="10" style="2" width="9"/>
+    <col customWidth="1" max="11" min="11" style="2" width="9.375"/>
+    <col customWidth="1" max="13" min="13" style="2" width="9.375"/>
+    <col customWidth="1" max="23" min="23" style="2" width="62.75"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -14324,65 +14412,75 @@
       </c>
       <c r="J1" s="4" t="inlineStr">
         <is>
+          <t>mobilephone</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
           <t>memberId</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>loanRate</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>loanTerm</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>loanDateType</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>repaymemtWay</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>biddingDays</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>pwd</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="U1" s="5" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="T1" s="5" t="inlineStr">
+      <c r="V1" s="5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="U1" s="5" t="inlineStr">
+      <c r="W1" s="5" t="inlineStr">
         <is>
           <t>msg</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -14409,22 +14507,22 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>select leaveamount from member where mobilephone = #phone#</t>
+          <t>SELECT Id FROM loan WHERE MemberID = #memberId# ORDER BY CreateTime DESC LIMIT 1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -14432,46 +14530,53 @@
           <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
         </is>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>成功</t>
+        </is>
+      </c>
+      <c r="X2" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -14496,17 +14601,12 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>select leaveamount from member where mobilephone = #phone#</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -14519,43 +14619,48 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="M3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="Q3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="R3" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="n">
+      <c r="T3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X3" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -14580,17 +14685,17 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
@@ -14598,41 +14703,48 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>777777</v>
-      </c>
-      <c r="L4" s="1" t="n">
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="R4" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
+      <c r="T4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U4" s="1" t="inlineStr">
+      <c r="V4" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X4" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -14657,17 +14769,17 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
@@ -14675,43 +14787,50 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="R5" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="n">
+      <c r="T5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U5" s="1" t="inlineStr">
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -14736,18 +14855,18 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F6" s="0" t="n"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
@@ -14755,43 +14874,50 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="n">
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
+      <c r="V6" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W6" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -14816,18 +14942,18 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F7" s="0" t="n"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
@@ -14835,43 +14961,50 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="R7" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="n">
+      <c r="T7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T7" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U7" s="1" t="inlineStr">
+      <c r="V7" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -14896,18 +15029,18 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F8" s="0" t="n"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
@@ -14915,43 +15048,50 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="M8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="n">
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="R8" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
+      <c r="T8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T8" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U8" s="1" t="inlineStr">
+      <c r="V8" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W8" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -14976,18 +15116,18 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F9" s="0" t="n"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4}</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
@@ -14995,43 +15135,50 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="M9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="n">
+      <c r="T9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U9" s="1" t="inlineStr">
+      <c r="V9" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W9" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -15056,18 +15203,18 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F10" s="0" t="n"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
@@ -15075,43 +15222,50 @@
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="M10" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="Q10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="n">
+      <c r="T10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
+      <c r="V10" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W10" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -15136,13 +15290,13 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F11" s="0" t="n"/>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -15155,52 +15309,57 @@
           <t>{"status": 0, "code": "20104", "data": null, "msg": "参数错误：用户IDmemberId必须是正整数"}</t>
         </is>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="L11" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="M11" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="R11" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="n">
+      <c r="T11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="n">
         <v>20104</v>
       </c>
-      <c r="T11" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U11" s="1" t="inlineStr">
+      <c r="V11" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W11" s="1" t="inlineStr">
         <is>
           <t>参数错误：用户IDmemberId必须是正整数</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="12" s="1">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -15209,7 +15368,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，memberId等于0</t>
+          <t>添加项目失败，memberId为小数</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -15219,71 +15378,76 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F12" s="0" t="n"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 0, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": 777777.7, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20104", "data": null, "msg": "参数错误：用户IDmemberId必须是正整数"}</t>
-        </is>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+          <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>777777.7</v>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="M12" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="R12" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>20104</v>
-      </c>
-      <c r="T12" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U12" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：用户IDmemberId必须是正整数</t>
+      <c r="T12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>20109</v>
+      </c>
+      <c r="V12" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W12" s="1" t="inlineStr">
+        <is>
+          <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="13" s="1">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
@@ -15292,7 +15456,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，memberId为小数</t>
+          <t>添加项目失败，amount小于1000</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -15302,71 +15466,78 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F13" s="0" t="n"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777.7, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 901, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20104", "data": null, "msg": "参数错误：用户IDmemberId必须是正整数"}</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>777777.7</v>
+          <t>{"status": 0, "code": "20106", "data": null, "msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
+        </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="M13" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N13" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="1" t="n">
-        <v>2000</v>
-      </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>20104</v>
-      </c>
-      <c r="T13" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U13" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：用户IDmemberId必须是正整数</t>
+        <v>901</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>20106</v>
+      </c>
+      <c r="V13" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W13" s="1" t="inlineStr">
+        <is>
+          <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="14" s="1">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
@@ -15375,7 +15546,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，amount小于1000</t>
+          <t>添加项目失败，amount等于1000</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -15385,71 +15556,78 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F14" s="0" t="n"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 900, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 1000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20105", "data": null, "msg": "不存在该会员"}</t>
-        </is>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>777777</v>
+          <t>{"status": 0, "code": "20106", "data": null, "msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
+        </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="M14" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N14" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="1" t="n">
-        <v>900</v>
-      </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>20105</v>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U14" s="1" t="inlineStr">
-        <is>
-          <t>不存在该会员</t>
+        <v>1000</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>20106</v>
+      </c>
+      <c r="V14" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W14" s="1" t="inlineStr">
+        <is>
+          <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="15" s="1">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
@@ -15458,7 +15636,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，amount等于1000</t>
+          <t>添加项目失败，amount不能被100整除</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -15468,18 +15646,18 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F15" s="0" t="n"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 1000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 1001, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
@@ -15487,52 +15665,59 @@
           <t>{"status": 0, "code": "20106", "data": null, "msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
         </is>
       </c>
-      <c r="J15" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="M15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N15" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="n">
         <v>20106</v>
       </c>
-      <c r="T15" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U15" s="1" t="inlineStr">
+      <c r="V15" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W15" s="1" t="inlineStr">
         <is>
           <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="16" s="1">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
@@ -15541,7 +15726,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，amount不能被100整除</t>
+          <t>添加项目失败，amount为小数</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -15551,18 +15736,18 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F16" s="0" t="n"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 1001, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000.5, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -15570,52 +15755,60 @@
           <t>{"status": 0, "code": "20106", "data": null, "msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
         </is>
       </c>
-      <c r="J16" s="1" t="n">
-        <v>777777</v>
-      </c>
+      <c r="J16" s="0" t="n"/>
       <c r="K16" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="M16" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N16" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="1" t="n">
-        <v>1001</v>
-      </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1" t="n">
+        <v>2000.5</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="n">
         <v>20106</v>
       </c>
-      <c r="T16" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U16" s="1" t="inlineStr">
+      <c r="V16" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W16" s="1" t="inlineStr">
         <is>
           <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="17" s="1">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
@@ -15624,7 +15817,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，amount为小数</t>
+          <t>添加项目失败，loanRate值小于0</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -15634,71 +15827,78 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F17" s="0" t="n"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000.5, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": -1, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20106", "data": null, "msg": "参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
-        </is>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>777777</v>
+          <t>{"status": 0, "code": "20107", "data": null, "msg": "参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
+        </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L17" s="1" t="n">
-        <v>20</v>
-      </c>
       <c r="M17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N17" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="1" t="n">
-        <v>2000.5</v>
-      </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>20106</v>
-      </c>
-      <c r="T17" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U17" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数</t>
+        <v>2000</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>20107</v>
+      </c>
+      <c r="V17" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W17" s="1" t="inlineStr">
+        <is>
+          <t>参数错误：借款利率loanRate值必须大于0小于或等于24</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="18" s="1">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
@@ -15707,7 +15907,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，loanRate值必须小于0</t>
+          <t>添加项目失败，loanRate值等于0</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -15717,18 +15917,18 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F18" s="0" t="n"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": -1, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 0, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
@@ -15736,52 +15936,59 @@
           <t>{"status": 0, "code": "20107", "data": null, "msg": "参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
         </is>
       </c>
-      <c r="J18" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L18" s="1" t="n">
-        <v>-1</v>
-      </c>
       <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N18" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="R18" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1" t="n">
+      <c r="T18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="n">
         <v>20107</v>
       </c>
-      <c r="T18" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U18" s="1" t="inlineStr">
+      <c r="V18" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W18" s="1" t="inlineStr">
         <is>
           <t>参数错误：借款利率loanRate值必须大于0小于或等于24</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="19" s="1">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
@@ -15790,7 +15997,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，loanRate值必须等于0</t>
+          <t>添加项目失败，loanRate值大于24</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -15800,18 +16007,18 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F19" s="0" t="n"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 0, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 25, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
@@ -15819,52 +16026,59 @@
           <t>{"status": 0, "code": "20107", "data": null, "msg": "参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
         </is>
       </c>
-      <c r="J19" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L19" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="N19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N19" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="R19" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="n">
+      <c r="T19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="n">
         <v>20107</v>
       </c>
-      <c r="T19" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U19" s="1" t="inlineStr">
+      <c r="V19" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W19" s="1" t="inlineStr">
         <is>
           <t>参数错误：借款利率loanRate值必须大于0小于或等于24</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="20" s="1">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
@@ -15873,7 +16087,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，loanRate值大于24</t>
+          <t>添加项目失败，loanDateType不为0,2,4</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -15883,71 +16097,78 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F20" s="0" t="n"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 25, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 1, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20107", "data": null, "msg": "参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
-        </is>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>777777</v>
+          <t>{"status": 0, "code": "20108", "data": null, "msg": "参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
+        </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L20" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="M20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N20" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="R20" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>20107</v>
-      </c>
-      <c r="T20" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U20" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：借款利率loanRate值必须大于0小于或等于24</t>
+      <c r="T20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>20108</v>
+      </c>
+      <c r="V20" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W20" s="1" t="inlineStr">
+        <is>
+          <t>参数错误：借款日期类型loanDateType只能为0,2,4</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="21" s="1">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
@@ -15956,7 +16177,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，loanDateType不为0,2,4</t>
+          <t>添加项目失败，memberId非数字</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -15966,71 +16187,78 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F21" s="0" t="n"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 1, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "abc", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20108", "data": null, "msg": "参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
-        </is>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>777777</v>
+          <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
+        </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="M21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1" t="n">
+      <c r="R21" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>20108</v>
-      </c>
-      <c r="T21" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U21" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：借款日期类型loanDateType只能为0,2,4</t>
+      <c r="T21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>20109</v>
+      </c>
+      <c r="V21" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W21" s="1" t="inlineStr">
+        <is>
+          <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="22" s="1">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
@@ -16039,7 +16267,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，memberId非数字</t>
+          <t>添加项目失败，loanRate非数字</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -16049,18 +16277,18 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F22" s="0" t="n"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": "abc", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": "abc", "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
@@ -16068,54 +16296,61 @@
           <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N22" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="R22" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="n">
+      <c r="T22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="T22" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U22" s="1" t="inlineStr">
+      <c r="V22" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W22" s="1" t="inlineStr">
         <is>
           <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="23" s="1">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
@@ -16124,7 +16359,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，title非数字</t>
+          <t>添加项目失败，loanTerm非数字</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -16134,18 +16369,18 @@
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F23" s="0" t="n"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "abc", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": "abc", "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I23" s="0" t="inlineStr">
@@ -16153,52 +16388,61 @@
           <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="J23" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1" t="inlineStr">
+        <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="L23" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="R23" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="n">
+      <c r="T23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="T23" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U23" s="1" t="inlineStr">
+      <c r="V23" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W23" s="1" t="inlineStr">
         <is>
           <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="24" s="1">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
@@ -16207,7 +16451,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，loanRate非数字</t>
+          <t>添加项目失败，loanDateType非数字</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -16217,18 +16461,18 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F24" s="0" t="n"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": "abc", "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": "abc", "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
@@ -16236,54 +16480,61 @@
           <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="J24" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="M24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="M24" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1" t="n">
+      <c r="P24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="Q24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" s="1" t="n">
+      <c r="R24" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="n">
+      <c r="T24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="T24" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U24" s="1" t="inlineStr">
+      <c r="V24" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W24" s="1" t="inlineStr">
         <is>
           <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="25" s="1">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
@@ -16292,7 +16543,7 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，loanTerm非数字</t>
+          <t>添加项目失败，repaymemtWay非数字</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -16302,18 +16553,18 @@
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F25" s="0" t="n"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": "abc", "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": "abc", "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I25" s="0" t="inlineStr">
@@ -16321,54 +16572,61 @@
           <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="J25" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="M25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M25" s="1" t="inlineStr">
+      <c r="N25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="N25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P25" s="1" t="n">
+      <c r="Q25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="R25" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="n">
+      <c r="T25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="T25" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U25" s="1" t="inlineStr">
+      <c r="V25" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W25" s="1" t="inlineStr">
         <is>
           <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="26" s="1">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
@@ -16377,7 +16635,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，loanDateType非数字</t>
+          <t>添加项目失败，biddingDays非数字</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -16387,18 +16645,18 @@
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F26" s="0" t="n"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": "abc", "repaymemtWay": 4, "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": "abc"}</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
@@ -16406,54 +16664,61 @@
           <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="J26" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="M26" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="N26" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N26" s="1" t="inlineStr">
+      <c r="O26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="O26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1" t="n">
+      <c r="R26" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="R26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1" t="n">
+      <c r="T26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="T26" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U26" s="1" t="inlineStr">
+      <c r="V26" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W26" s="1" t="inlineStr">
         <is>
           <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="27" s="1">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
@@ -16462,7 +16727,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>添加项目失败，repaymemtWay非数字</t>
+          <t>添加项目失败，amount非数字</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
@@ -16472,18 +16737,18 @@
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F27" s="0" t="n"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>/member/add</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": "abc", "biddingDays": 1}</t>
+          <t>{"memberId": "#memberId#", "title": "test", "amount": "abc", "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
         </is>
       </c>
       <c r="I27" s="0" t="inlineStr">
@@ -16491,253 +16756,1559 @@
           <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="J27" s="1" t="n">
-        <v>777777</v>
-      </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
+          <t>#memberId#</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="M27" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="N27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="inlineStr">
+      <c r="O27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="P27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1" t="n">
+      <c r="T27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="T27" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U27" s="1" t="inlineStr">
+      <c r="V27" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="W27" s="1" t="inlineStr">
         <is>
           <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
         </is>
       </c>
-    </row>
-    <row customFormat="1" r="28" s="1">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>添加项目失败，biddingDays非数字</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="n"/>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>{"memberId": 777777, "title": "test", "amount": 2000, "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": "abc"}</t>
-        </is>
-      </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>777777</v>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P28" s="1" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>20109</v>
-      </c>
-      <c r="T28" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U28" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="29" s="1">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>添加项目失败，amount非数字</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="n"/>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>{"memberId": 777777, "title": "test", "amount": "abc", "loanRate": 20, "loanTerm": 6, "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>{"status": 0, "code": "20109", "data": null, "msg": "参数错误：请根据参数类型对应输入，数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>777777</v>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="1" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>20109</v>
-      </c>
-      <c r="T29" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="U29" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：请根据参数类型对应输入，数值类型只能输入数字</t>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="G29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId28"/>
+    <hyperlink display="/loan/add" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink display="/loan/add" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink display="/loan/add" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink display="/loan/add" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink display="/loan/add" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink display="/loan/add" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink display="/loan/add" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink display="/loan/add" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink display="/loan/add" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink display="/loan/add" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink display="/loan/add" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink display="/loan/add" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink display="/loan/add" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink display="/loan/add" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink display="/loan/add" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink display="/loan/add" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink display="/loan/add" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink display="/loan/add" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink display="/loan/add" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+    <hyperlink display="/loan/add" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
+    <hyperlink display="/loan/add" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
+    <hyperlink display="/loan/add" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
+    <hyperlink display="/loan/add" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
+    <hyperlink display="/loan/add" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
+    <hyperlink display="/loan/add" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
+    <hyperlink display="/loan/add" ref="G27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" style="2" width="28.125"/>
+    <col customWidth="1" max="4" min="4" style="2" width="9.375"/>
+    <col customWidth="1" max="7" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="8" style="2" width="50.375"/>
+    <col customWidth="1" max="9" min="9" style="2" width="46"/>
+    <col customWidth="1" max="11" min="10" style="2" width="9"/>
+    <col customWidth="1" max="12" min="12" style="2" width="7.375"/>
+    <col customWidth="1" max="15" min="15" style="2" width="44.375"/>
+    <col customWidth="1" max="16" min="16" style="2" width="50.5"/>
+    <col customWidth="1" max="18" min="18" style="2" width="75"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>api_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>checksql</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>loan_id</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>loan_status</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="1">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>修改状态为审核成功</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Status FROM loan WHERE MemberID = #memberId# and Id = #loanId#</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 1}</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="1">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>修改状态为二审成功</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Status FROM loan WHERE MemberID = #memberId# and Id = #loanId#</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 2}</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="P3" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="1">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>修改状态为三审成功</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Status FROM loan WHERE MemberID = #memberId# and Id = #loanId#</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 3}</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="1">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>修改状态为竞标成功</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Status FROM loan WHERE MemberID = #memberId# and Id = #loanId#</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 4}</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="6" s="1">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>修改状态为核保审批成功</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Status FROM loan WHERE MemberID = #memberId# and Id = #loanId#</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 5}</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="P6" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>修改状态为平台终审成功</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Status FROM loan WHERE MemberID = #memberId# and Id = #loanId#</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 6}</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="8" s="1">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>审核失败，loanId为空</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1}</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20203", "data": null, "msg": "参数错误:所有参数不能为空"}</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>20203</v>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t>参数错误:所有参数不能为空</t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="9" s="1">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>审核失败，status为空</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#"}</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20203", "data": null, "msg": "参数错误:所有参数不能为空"}</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="n"/>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>20203</v>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t>参数错误:所有参数不能为空</t>
+        </is>
+      </c>
+      <c r="P9" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，错误的标Id值</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 12}</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20205", "data": null, "msg": "参数错误:非法status参数，状态值1-11"}</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>20205</v>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>参数错误:非法status参数，状态值1-11</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，错误的标Id值</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": -1}</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20205", "data": null, "msg": "参数错误:非法status参数，状态值1-11"}</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>20205</v>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O11" s="6" t="inlineStr">
+        <is>
+          <t>参数错误:非法status参数，状态值1-11</t>
+        </is>
+      </c>
+      <c r="P11" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，不存在该项目</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>{"id": 999999, "status": 1}</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "code": "20206", "data": null, "msg": "不存在该项目"}</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>999999</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>20206</v>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t>不存在该项目</t>
+        </is>
+      </c>
+      <c r="P12" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，当前标已经是该状态</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 6}</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20207", "data": null, "msg": "修改失败，当前标已经是该状态"}</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>20207</v>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O13" s="6" t="inlineStr">
+        <is>
+          <t>修改失败，当前标已经是该状态</t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，不通过的标不允许修改状态</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 8}</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20211", "data": null, "msg": "审核不通过、流标、还款完成的标不允许修改状态"}</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>20211</v>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O14" s="6" t="inlineStr">
+        <is>
+          <t>审核不通过、流标、还款完成的标不允许修改状态</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，流标不允许修改状态</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="n"/>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 9}</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20211", "data": null, "msg": "审核不通过、流标、还款完成的标不允许修改状态"}</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>20211</v>
+      </c>
+      <c r="N15" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O15" s="6" t="inlineStr">
+        <is>
+          <t>审核不通过、流标、还款完成的标不允许修改状态</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，还款完成的标不允许修改状态</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 10}</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20211", "data": null, "msg": "审核不通过、流标、还款完成的标不允许修改状态"}</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>20211</v>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O16" s="6" t="inlineStr">
+        <is>
+          <t>审核不通过、流标、还款完成的标不允许修改状态</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，不允许直接更新项目到还款中状态</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 7}</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20210", "data": null, "msg": "不允许直接更新项目到还款中状态，请执行生成回款计划"}</t>
+        </is>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>20210</v>
+      </c>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O17" s="6" t="inlineStr">
+        <is>
+          <t>不允许直接更新项目到还款中状态，请执行生成回款计划</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>审核失败，loanId为字母</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "abc", "status": 1}</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20212", "data": null, "msg": "请根据参数类型对应输入，数值类型只能输入数字"}</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>20212</v>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O18" s="6" t="inlineStr">
+        <is>
+          <t>请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>审核失败，status为字母</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="n"/>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": "abc"}</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20212", "data": null, "msg": "请根据参数类型对应输入，数值类型只能输入数字"}</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>20212</v>
+      </c>
+      <c r="N19" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O19" s="6" t="inlineStr">
+        <is>
+          <t>请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="P19" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>审核失败，错误的标Id值</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="n"/>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>{"id": "#loanId#", "status": 5.5}</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "code": "20212", "data": null, "msg": "请根据参数类型对应输入，数值类型只能输入数字"}</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>#loanId#</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>20212</v>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O20" s="6" t="inlineStr">
+        <is>
+          <t>请根据参数类型对应输入，数值类型只能输入数字</t>
+        </is>
+      </c>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 1}" ref="H2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 2}" ref="H3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 3}" ref="H4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 4}" ref="H5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5}" ref="H6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink display="{&quot;status&quot;: 1}" ref="H8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;}" ref="H9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 12}" ref="H10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: -1}" ref="H11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink display="{&quot;id&quot;: 999999, &quot;status&quot;: 1}" ref="H12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 8}" ref="H14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 9}" ref="H15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 10}" ref="H16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 7}" ref="H17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink display="{&quot;id&quot;: &quot;abc&quot;, &quot;status&quot;: 1}" ref="H18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: &quot;abc&quot;}" ref="H19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5.5}" ref="H20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/package_301/data/api_test.xlsx
+++ b/package_301/data/api_test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28800"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="register" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="add" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="audit" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="audit" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7394,93 +7394,93 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink display="/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink display="/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink display="/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink display="/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink display="/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink display="/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink display="/member/register" ref="F9" r:id="rId8"/>
-    <hyperlink display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
-    <hyperlink display="/member/recharge" ref="F14" r:id="rId13"/>
-    <hyperlink display="/member/recharge" ref="F15" r:id="rId14"/>
-    <hyperlink display="/member/recharge" ref="F16" r:id="rId15"/>
-    <hyperlink display="/member/recharge" ref="F17" r:id="rId16"/>
-    <hyperlink display="/member/recharge" ref="F18" r:id="rId17"/>
-    <hyperlink display="/member/recharge" ref="F19" r:id="rId18"/>
-    <hyperlink display="/member/recharge" ref="F20" r:id="rId19"/>
-    <hyperlink display="/member/recharge" ref="F21" r:id="rId20"/>
-    <hyperlink display="/member/recharge" ref="F22" r:id="rId21"/>
-    <hyperlink display="/member/withdraw" ref="F23" r:id="rId22"/>
-    <hyperlink display="/member/withdraw" ref="F24" r:id="rId23"/>
-    <hyperlink display="/member/withdraw" ref="F25" r:id="rId24"/>
-    <hyperlink display="/member/withdraw" ref="F26" r:id="rId25"/>
-    <hyperlink display="/member/withdraw" ref="F27" r:id="rId26"/>
-    <hyperlink display="/member/withdraw" ref="F28" r:id="rId27"/>
-    <hyperlink display="/member/withdraw" ref="F29" r:id="rId28"/>
-    <hyperlink display="/member/withdraw" ref="F30" r:id="rId29"/>
-    <hyperlink display="/member/withdraw" ref="F31" r:id="rId30"/>
-    <hyperlink display="/member/withdraw" ref="F32" r:id="rId31"/>
-    <hyperlink display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
-    <hyperlink display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
-    <hyperlink display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
-    <hyperlink display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
-    <hyperlink display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
-    <hyperlink display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
-    <hyperlink display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
-    <hyperlink display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
-    <hyperlink display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
-    <hyperlink display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
-    <hyperlink display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
-    <hyperlink display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
-    <hyperlink display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
-    <hyperlink display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
-    <hyperlink display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
-    <hyperlink display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
-    <hyperlink display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
-    <hyperlink display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
-    <hyperlink display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
-    <hyperlink display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
-    <hyperlink display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
-    <hyperlink display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
-    <hyperlink display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
-    <hyperlink display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
-    <hyperlink display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
-    <hyperlink display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
-    <hyperlink display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
-    <hyperlink display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
-    <hyperlink display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
-    <hyperlink display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
-    <hyperlink display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
-    <hyperlink display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
-    <hyperlink display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
-    <hyperlink display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
-    <hyperlink display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
-    <hyperlink display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
-    <hyperlink display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
-    <hyperlink display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
-    <hyperlink display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
-    <hyperlink display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
-    <hyperlink display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
-    <hyperlink display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
-    <hyperlink display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
-    <hyperlink display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
-    <hyperlink display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
-    <hyperlink display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
-    <hyperlink display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
-    <hyperlink display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
-    <hyperlink display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
-    <hyperlink display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
-    <hyperlink display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
-    <hyperlink display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
-    <hyperlink display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
-    <hyperlink display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
-    <hyperlink display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
-    <hyperlink display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7488,7 +7488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9352,18 +9352,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/register" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/register" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/register" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/register" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/register" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/register" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/register" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
-    <hyperlink display="/member/login" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink display="/member/login" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink display="/member/login" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink display="get" ref="E13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="get" ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9371,7 +9371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9788,17 +9788,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/login" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink display="/member/login" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink display="/member/login" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink display="/member/login" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10531,21 +10531,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/register" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/register" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/register" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/register" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/register" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/register" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/register" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/register" ref="G9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11323,22 +11323,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/recharge" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/recharge" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/recharge" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/recharge" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/recharge" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/recharge" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/recharge" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/recharge" ref="G9" r:id="rId8"/>
-    <hyperlink display="/member/recharge" ref="G10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12186,23 +12186,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/withdraw" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/withdraw" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/withdraw" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/withdraw" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/withdraw" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/withdraw" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/withdraw" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/withdraw" ref="G9" r:id="rId8"/>
-    <hyperlink display="/member/withdraw" ref="G10" r:id="rId9"/>
-    <hyperlink display="/member/withdraw" ref="G11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14304,31 +14304,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/loan/bidLoan" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
-    <hyperlink display="/loan/bidLoan" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="/loan/bidLoan" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
-    <hyperlink display="/loan/bidLoan" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
-    <hyperlink display="/loan/bidLoan" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
-    <hyperlink display="/loan/bidLoan" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
-    <hyperlink display="/loan/bidLoan" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
-    <hyperlink display="/loan/bidLoan" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
-    <hyperlink display="/loan/bidLoan" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
-    <hyperlink display="/loan/bidLoan" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
-    <hyperlink display="/loan/bidLoan" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
-    <hyperlink display="/loan/bidLoan" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
-    <hyperlink display="/loan/bidLoan" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
-    <hyperlink display="/loan/bidLoan" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
-    <hyperlink display="/loan/bidLoan" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
-    <hyperlink display="/loan/bidLoan" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
-    <hyperlink display="/loan/bidLoan" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
-    <hyperlink display="/loan/bidLoan" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
-    <hyperlink display="/loan/bidLoan" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
-    <hyperlink display="/loan/bidLoan" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
-    <hyperlink display="/loan/bidLoan" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
-    <hyperlink display="/loan/bidLoan" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
-    <hyperlink display="/loan/bidLoan" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
-    <hyperlink display="/loan/bidLoan" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
-    <hyperlink display="/loan/bidLoan" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14336,7 +14336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16810,32 +16810,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/loan/add" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
-    <hyperlink display="/loan/add" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="/loan/add" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
-    <hyperlink display="/loan/add" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
-    <hyperlink display="/loan/add" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
-    <hyperlink display="/loan/add" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
-    <hyperlink display="/loan/add" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
-    <hyperlink display="/loan/add" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
-    <hyperlink display="/loan/add" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
-    <hyperlink display="/loan/add" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
-    <hyperlink display="/loan/add" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
-    <hyperlink display="/loan/add" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
-    <hyperlink display="/loan/add" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
-    <hyperlink display="/loan/add" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
-    <hyperlink display="/loan/add" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
-    <hyperlink display="/loan/add" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
-    <hyperlink display="/loan/add" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
-    <hyperlink display="/loan/add" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
-    <hyperlink display="/loan/add" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
-    <hyperlink display="/loan/add" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
-    <hyperlink display="/loan/add" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
-    <hyperlink display="/loan/add" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
-    <hyperlink display="/loan/add" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
-    <hyperlink display="/loan/add" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
-    <hyperlink display="/loan/add" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
-    <hyperlink display="/loan/add" ref="G27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -16843,7 +16843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -18289,25 +18289,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 1}" ref="H2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 2}" ref="H3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 3}" ref="H4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 4}" ref="H5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5}" ref="H6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
-    <hyperlink display="{&quot;status&quot;: 1}" ref="H8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;}" ref="H9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 12}" ref="H10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: -1}" ref="H11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
-    <hyperlink display="{&quot;id&quot;: 999999, &quot;status&quot;: 1}" ref="H12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 8}" ref="H14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 9}" ref="H15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 10}" ref="H16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 7}" ref="H17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
-    <hyperlink display="{&quot;id&quot;: &quot;abc&quot;, &quot;status&quot;: 1}" ref="H18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: &quot;abc&quot;}" ref="H19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5.5}" ref="H20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 1}" ref="H2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 2}" ref="H3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 3}" ref="H4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 4}" ref="H5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5}" ref="H6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;status&quot;: 1}" ref="H8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;}" ref="H9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 12}" ref="H10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: -1}" ref="H11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: 999999, &quot;status&quot;: 1}" ref="H12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 8}" ref="H14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 9}" ref="H15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 10}" ref="H16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 7}" ref="H17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;abc&quot;, &quot;status&quot;: 1}" ref="H18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: &quot;abc&quot;}" ref="H19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5.5}" ref="H20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
